--- a/import/import.xlsx
+++ b/import/import.xlsx
@@ -947,7 +947,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/import/import.xlsx
+++ b/import/import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OSPanel\domains\powercalc\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\powercalc\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,37 +29,6 @@
     <author>Anton Steblinkin</author>
   </authors>
   <commentList>
-    <comment ref="I21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>задан для выравнивания эквивалентной мощности</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>задан для выравнивания эквивалентной мощности</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K21" authorId="0" shapeId="0">
-      <text/>
-    </comment>
     <comment ref="I54" authorId="0" shapeId="0">
       <text>
         <r>
@@ -79,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
   <si>
     <t>ПОШ (уборка/выпуск)</t>
   </si>
@@ -299,32 +268,112 @@
     <t>Группа</t>
   </si>
   <si>
-    <t>Базовое
-распред.
-к расчету</t>
-  </si>
-  <si>
-    <t>Архит.
-5
-ЭДСУ</t>
-  </si>
-  <si>
-    <t>Архит.
-6
-2H2E</t>
-  </si>
-  <si>
-    <t>Архит.
-7
-ЭлКрЛГС</t>
-  </si>
-  <si>
-    <t>Архит.
-8
-ПЭС</t>
-  </si>
-  <si>
     <t>Руление</t>
+  </si>
+  <si>
+    <t>Реверс тяги прав. 3</t>
+  </si>
+  <si>
+    <t>Реверс тяги прав. 4</t>
+  </si>
+  <si>
+    <t>ТЩ левые 3 шт.</t>
+  </si>
+  <si>
+    <t>ТЩ правые 3 шт.</t>
+  </si>
+  <si>
+    <t>Взлет и
+набор
+H=0-120м</t>
+  </si>
+  <si>
+    <t>Уборка
+шасси</t>
+  </si>
+  <si>
+    <t>Набор H=
+120-450м</t>
+  </si>
+  <si>
+    <t>Уборка
+механ</t>
+  </si>
+  <si>
+    <t>Набор
+H=450м-12км пас</t>
+  </si>
+  <si>
+    <t>Набор H=
+450м-12км акт</t>
+  </si>
+  <si>
+    <t>Крейсерский
+полет пас</t>
+  </si>
+  <si>
+    <t>Крейсерский
+полет акт</t>
+  </si>
+  <si>
+    <t>Снижение
+H=12-3км
+пас</t>
+  </si>
+  <si>
+    <t>Снижение
+H=12-3км
+акт</t>
+  </si>
+  <si>
+    <t>Заход
+на посадку
+H=3км-120м</t>
+  </si>
+  <si>
+    <t>Выпуск
+механ</t>
+  </si>
+  <si>
+    <t>Выпуск
+шасси</t>
+  </si>
+  <si>
+    <t>Посадка</t>
+  </si>
+  <si>
+    <t>Выпуск
+ВТ</t>
+  </si>
+  <si>
+    <t>Пробег</t>
+  </si>
+  <si>
+    <t>Работа акт.
+системы</t>
+  </si>
+  <si>
+    <t>Реверс на
+обр. тягу</t>
+  </si>
+  <si>
+    <t>Реверс на
+прям. тягу</t>
+  </si>
+  <si>
+    <t>База</t>
+  </si>
+  <si>
+    <t>5. ЭДСУ</t>
+  </si>
+  <si>
+    <t>6. 2H2E</t>
+  </si>
+  <si>
+    <t>7. ЭлКрЛГС</t>
+  </si>
+  <si>
+    <t>8. ПЭС</t>
   </si>
 </sst>
 </file>
@@ -368,10 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,27 +996,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -980,26 +1046,89 @@
       <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1165,71 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1.6</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1074,8 +1266,71 @@
       <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.5</v>
+      </c>
+      <c r="AD3">
+        <v>0.5</v>
+      </c>
+      <c r="AE3">
+        <v>0.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.5</v>
+      </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.5</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -1112,8 +1367,71 @@
       <c r="N4">
         <v>1</v>
       </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <v>0.5</v>
+      </c>
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.5</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1150,8 +1468,71 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1188,8 +1569,71 @@
       <c r="N6">
         <v>0</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1226,8 +1670,71 @@
       <c r="N7">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1264,8 +1771,71 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1300,11 +1870,73 @@
         <v>4</v>
       </c>
       <c r="N9">
-        <f>N2</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.2569832402234637</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1339,11 +1971,73 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <f>N8</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.2569832402234637</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1378,11 +2072,73 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <f>N9</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.2569832402234637</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1419,8 +2175,71 @@
       <c r="N12">
         <v>0.5</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1455,11 +2274,73 @@
         <v>4</v>
       </c>
       <c r="N13">
-        <f>N12</f>
+        <v>0.5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1494,11 +2375,73 @@
         <v>4</v>
       </c>
       <c r="N14">
-        <f>N13</f>
+        <v>0.5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1533,11 +2476,73 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <f>N14</f>
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1572,11 +2577,73 @@
         <v>4</v>
       </c>
       <c r="N16">
-        <f>N15</f>
+        <v>0.5</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1611,11 +2678,73 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <f>N16</f>
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1652,8 +2781,71 @@
       <c r="N18">
         <v>0.1</v>
       </c>
+      <c r="O18">
+        <v>0.5</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18">
+        <v>0.3</v>
+      </c>
+      <c r="S18">
+        <v>0.1</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
+      </c>
+      <c r="U18">
+        <v>0.1</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>0.5</v>
+      </c>
+      <c r="X18">
+        <v>0.1</v>
+      </c>
+      <c r="Y18">
+        <v>0.5</v>
+      </c>
+      <c r="Z18">
+        <v>0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.3</v>
+      </c>
+      <c r="AB18">
+        <v>0.5</v>
+      </c>
+      <c r="AC18">
+        <v>0.5</v>
+      </c>
+      <c r="AD18">
+        <v>0.5</v>
+      </c>
+      <c r="AE18">
+        <v>0.5</v>
+      </c>
+      <c r="AF18">
+        <v>0.5</v>
+      </c>
+      <c r="AG18">
+        <v>0.5</v>
+      </c>
+      <c r="AH18">
+        <v>0.5</v>
+      </c>
+      <c r="AI18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1688,11 +2880,73 @@
         <v>4</v>
       </c>
       <c r="N19">
-        <f>N18</f>
+        <v>0.1</v>
+      </c>
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>0.3</v>
+      </c>
+      <c r="S19">
+        <v>0.1</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.1</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0.1</v>
+      </c>
+      <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>0.5</v>
+      </c>
+      <c r="AA19">
+        <v>0.3</v>
+      </c>
+      <c r="AB19">
+        <v>0.5</v>
+      </c>
+      <c r="AC19">
+        <v>0.5</v>
+      </c>
+      <c r="AD19">
+        <v>0.5</v>
+      </c>
+      <c r="AE19">
+        <v>0.5</v>
+      </c>
+      <c r="AF19">
+        <v>0.5</v>
+      </c>
+      <c r="AG19">
+        <v>0.5</v>
+      </c>
+      <c r="AH19">
+        <v>0.5</v>
+      </c>
+      <c r="AI19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1727,11 +2981,73 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <f>N19</f>
+        <v>0.1</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>0.3</v>
+      </c>
+      <c r="S20">
+        <v>0.1</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.1</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.1</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>0.5</v>
+      </c>
+      <c r="AA20">
+        <v>0.3</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>0.5</v>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
+      </c>
+      <c r="AE20">
+        <v>0.5</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>0.5</v>
+      </c>
+      <c r="AH20">
+        <v>0.5</v>
+      </c>
+      <c r="AI20">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1766,11 +3082,73 @@
         <v>4</v>
       </c>
       <c r="N21">
-        <f>N20</f>
+        <v>0.1</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0.3</v>
+      </c>
+      <c r="S21">
+        <v>0.1</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.1</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.1</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0.3</v>
+      </c>
+      <c r="AB21">
+        <v>0.5</v>
+      </c>
+      <c r="AC21">
+        <v>0.5</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AE21">
+        <v>0.5</v>
+      </c>
+      <c r="AF21">
+        <v>0.5</v>
+      </c>
+      <c r="AG21">
+        <v>0.5</v>
+      </c>
+      <c r="AH21">
+        <v>0.5</v>
+      </c>
+      <c r="AI21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1805,11 +3183,73 @@
         <v>31</v>
       </c>
       <c r="N22">
-        <f>N21</f>
+        <v>0.1</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0.3</v>
+      </c>
+      <c r="S22">
+        <v>0.1</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.1</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.1</v>
+      </c>
+      <c r="Y22">
+        <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.3</v>
+      </c>
+      <c r="AB22">
+        <v>0.5</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <v>0.5</v>
+      </c>
+      <c r="AE22">
+        <v>0.5</v>
+      </c>
+      <c r="AF22">
+        <v>0.5</v>
+      </c>
+      <c r="AG22">
+        <v>0.5</v>
+      </c>
+      <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1844,11 +3284,73 @@
         <v>31</v>
       </c>
       <c r="N23">
-        <f>N22</f>
+        <v>0.1</v>
+      </c>
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0.3</v>
+      </c>
+      <c r="S23">
+        <v>0.1</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.1</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.1</v>
+      </c>
+      <c r="Y23">
+        <v>0.5</v>
+      </c>
+      <c r="Z23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.3</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
+        <v>0.5</v>
+      </c>
+      <c r="AD23">
+        <v>0.5</v>
+      </c>
+      <c r="AE23">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0.5</v>
+      </c>
+      <c r="AG23">
+        <v>0.5</v>
+      </c>
+      <c r="AH23">
+        <v>0.5</v>
+      </c>
+      <c r="AI23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1885,8 +3387,71 @@
       <c r="N24">
         <v>0</v>
       </c>
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>0.3</v>
+      </c>
+      <c r="S24">
+        <v>0.1</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.1</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+      <c r="X24">
+        <v>0.1</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+      <c r="Z24">
+        <v>0.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.3</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
+      <c r="AD24">
+        <v>0.5</v>
+      </c>
+      <c r="AE24">
+        <v>0.5</v>
+      </c>
+      <c r="AF24">
+        <v>0.5</v>
+      </c>
+      <c r="AG24">
+        <v>0.5</v>
+      </c>
+      <c r="AH24">
+        <v>0.5</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1923,8 +3488,71 @@
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <v>0.3</v>
+      </c>
+      <c r="S25">
+        <v>0.1</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.1</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>0.1</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.3</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
+      <c r="AD25">
+        <v>0.5</v>
+      </c>
+      <c r="AE25">
+        <v>0.5</v>
+      </c>
+      <c r="AF25">
+        <v>0.5</v>
+      </c>
+      <c r="AG25">
+        <v>0.5</v>
+      </c>
+      <c r="AH25">
+        <v>0.5</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +3589,71 @@
       <c r="N26">
         <v>0</v>
       </c>
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>0.3</v>
+      </c>
+      <c r="S26">
+        <v>0.1</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.1</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>0.1</v>
+      </c>
+      <c r="Y26">
+        <v>0.5</v>
+      </c>
+      <c r="Z26">
+        <v>0.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.3</v>
+      </c>
+      <c r="AB26">
+        <v>0.5</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
+      <c r="AD26">
+        <v>0.5</v>
+      </c>
+      <c r="AE26">
+        <v>0.5</v>
+      </c>
+      <c r="AF26">
+        <v>0.5</v>
+      </c>
+      <c r="AG26">
+        <v>0.5</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1999,8 +3690,71 @@
       <c r="N27">
         <v>0</v>
       </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="P27">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>0.3</v>
+      </c>
+      <c r="S27">
+        <v>0.1</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.1</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+      <c r="X27">
+        <v>0.1</v>
+      </c>
+      <c r="Y27">
+        <v>0.5</v>
+      </c>
+      <c r="Z27">
+        <v>0.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.3</v>
+      </c>
+      <c r="AB27">
+        <v>0.5</v>
+      </c>
+      <c r="AC27">
+        <v>0.5</v>
+      </c>
+      <c r="AD27">
+        <v>0.5</v>
+      </c>
+      <c r="AE27">
+        <v>0.5</v>
+      </c>
+      <c r="AF27">
+        <v>0.5</v>
+      </c>
+      <c r="AG27">
+        <v>0.5</v>
+      </c>
+      <c r="AH27">
+        <v>0.5</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2037,8 +3791,71 @@
       <c r="N28">
         <v>0</v>
       </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.3</v>
+      </c>
+      <c r="S28">
+        <v>0.1</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.1</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+      <c r="X28">
+        <v>0.1</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
+        <v>0.3</v>
+      </c>
+      <c r="AB28">
+        <v>0.5</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AD28">
+        <v>0.5</v>
+      </c>
+      <c r="AE28">
+        <v>0.5</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2075,8 +3892,71 @@
       <c r="N29">
         <v>0</v>
       </c>
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.3</v>
+      </c>
+      <c r="S29">
+        <v>0.1</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.1</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+      <c r="X29">
+        <v>0.1</v>
+      </c>
+      <c r="Y29">
+        <v>0.5</v>
+      </c>
+      <c r="Z29">
+        <v>0.5</v>
+      </c>
+      <c r="AA29">
+        <v>0.3</v>
+      </c>
+      <c r="AB29">
+        <v>0.5</v>
+      </c>
+      <c r="AC29">
+        <v>0.5</v>
+      </c>
+      <c r="AD29">
+        <v>0.5</v>
+      </c>
+      <c r="AE29">
+        <v>0.5</v>
+      </c>
+      <c r="AF29">
+        <v>0.5</v>
+      </c>
+      <c r="AG29">
+        <v>0.5</v>
+      </c>
+      <c r="AH29">
+        <v>0.5</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2113,8 +3993,71 @@
       <c r="N30">
         <v>0</v>
       </c>
+      <c r="O30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>0.3</v>
+      </c>
+      <c r="S30">
+        <v>0.1</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>0.1</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>0.5</v>
+      </c>
+      <c r="X30">
+        <v>0.1</v>
+      </c>
+      <c r="Y30">
+        <v>0.5</v>
+      </c>
+      <c r="Z30">
+        <v>0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.3</v>
+      </c>
+      <c r="AB30">
+        <v>0.5</v>
+      </c>
+      <c r="AC30">
+        <v>0.5</v>
+      </c>
+      <c r="AD30">
+        <v>0.5</v>
+      </c>
+      <c r="AE30">
+        <v>0.5</v>
+      </c>
+      <c r="AF30">
+        <v>0.5</v>
+      </c>
+      <c r="AG30">
+        <v>0.5</v>
+      </c>
+      <c r="AH30">
+        <v>0.5</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2151,8 +4094,71 @@
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>0.3</v>
+      </c>
+      <c r="S31">
+        <v>0.1</v>
+      </c>
+      <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>0.1</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>0.1</v>
+      </c>
+      <c r="Y31">
+        <v>0.5</v>
+      </c>
+      <c r="Z31">
+        <v>0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.3</v>
+      </c>
+      <c r="AB31">
+        <v>0.5</v>
+      </c>
+      <c r="AC31">
+        <v>0.5</v>
+      </c>
+      <c r="AD31">
+        <v>0.5</v>
+      </c>
+      <c r="AE31">
+        <v>0.5</v>
+      </c>
+      <c r="AF31">
+        <v>0.5</v>
+      </c>
+      <c r="AG31">
+        <v>0.5</v>
+      </c>
+      <c r="AH31">
+        <v>0.5</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2189,8 +4195,71 @@
       <c r="N32">
         <v>0</v>
       </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>0.3</v>
+      </c>
+      <c r="S32">
+        <v>0.1</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>0.1</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>0.5</v>
+      </c>
+      <c r="X32">
+        <v>0.1</v>
+      </c>
+      <c r="Y32">
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+      <c r="AA32">
+        <v>0.3</v>
+      </c>
+      <c r="AB32">
+        <v>0.5</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>0.5</v>
+      </c>
+      <c r="AE32">
+        <v>0.5</v>
+      </c>
+      <c r="AF32">
+        <v>0.5</v>
+      </c>
+      <c r="AG32">
+        <v>0.5</v>
+      </c>
+      <c r="AH32">
+        <v>0.5</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2227,8 +4296,71 @@
       <c r="N33">
         <v>0</v>
       </c>
+      <c r="O33">
+        <v>0.5</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>0.3</v>
+      </c>
+      <c r="S33">
+        <v>0.1</v>
+      </c>
+      <c r="T33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>0.1</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>0.1</v>
+      </c>
+      <c r="Y33">
+        <v>0.5</v>
+      </c>
+      <c r="Z33">
+        <v>0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0.3</v>
+      </c>
+      <c r="AB33">
+        <v>0.5</v>
+      </c>
+      <c r="AC33">
+        <v>0.5</v>
+      </c>
+      <c r="AD33">
+        <v>0.5</v>
+      </c>
+      <c r="AE33">
+        <v>0.5</v>
+      </c>
+      <c r="AF33">
+        <v>0.5</v>
+      </c>
+      <c r="AG33">
+        <v>0.5</v>
+      </c>
+      <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2265,8 +4397,71 @@
       <c r="N34">
         <v>0</v>
       </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>0.3</v>
+      </c>
+      <c r="S34">
+        <v>0.1</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>0.1</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="W34">
+        <v>0.5</v>
+      </c>
+      <c r="X34">
+        <v>0.1</v>
+      </c>
+      <c r="Y34">
+        <v>0.5</v>
+      </c>
+      <c r="Z34">
+        <v>0.5</v>
+      </c>
+      <c r="AA34">
+        <v>0.3</v>
+      </c>
+      <c r="AB34">
+        <v>0.5</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
+      <c r="AD34">
+        <v>0.5</v>
+      </c>
+      <c r="AE34">
+        <v>0.5</v>
+      </c>
+      <c r="AF34">
+        <v>0.5</v>
+      </c>
+      <c r="AG34">
+        <v>0.5</v>
+      </c>
+      <c r="AH34">
+        <v>0.5</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2303,8 +4498,71 @@
       <c r="N35">
         <v>0</v>
       </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>0.3</v>
+      </c>
+      <c r="S35">
+        <v>0.1</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>0.1</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.1</v>
+      </c>
+      <c r="Y35">
+        <v>0.5</v>
+      </c>
+      <c r="Z35">
+        <v>0.5</v>
+      </c>
+      <c r="AA35">
+        <v>0.3</v>
+      </c>
+      <c r="AB35">
+        <v>0.5</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>0.5</v>
+      </c>
+      <c r="AE35">
+        <v>0.5</v>
+      </c>
+      <c r="AF35">
+        <v>0.5</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AH35">
+        <v>0.5</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2341,8 +4599,71 @@
       <c r="N36">
         <v>0</v>
       </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="Q36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>0.3</v>
+      </c>
+      <c r="S36">
+        <v>0.1</v>
+      </c>
+      <c r="T36">
+        <v>0.5</v>
+      </c>
+      <c r="U36">
+        <v>0.1</v>
+      </c>
+      <c r="V36">
+        <v>0.5</v>
+      </c>
+      <c r="W36">
+        <v>0.5</v>
+      </c>
+      <c r="X36">
+        <v>0.1</v>
+      </c>
+      <c r="Y36">
+        <v>0.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.5</v>
+      </c>
+      <c r="AA36">
+        <v>0.3</v>
+      </c>
+      <c r="AB36">
+        <v>0.5</v>
+      </c>
+      <c r="AC36">
+        <v>0.5</v>
+      </c>
+      <c r="AD36">
+        <v>0.5</v>
+      </c>
+      <c r="AE36">
+        <v>0.5</v>
+      </c>
+      <c r="AF36">
+        <v>0.5</v>
+      </c>
+      <c r="AG36">
+        <v>0.5</v>
+      </c>
+      <c r="AH36">
+        <v>0.5</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2379,8 +4700,71 @@
       <c r="N37">
         <v>0</v>
       </c>
+      <c r="O37">
+        <v>0.5</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="Q37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>0.3</v>
+      </c>
+      <c r="S37">
+        <v>0.1</v>
+      </c>
+      <c r="T37">
+        <v>0.5</v>
+      </c>
+      <c r="U37">
+        <v>0.1</v>
+      </c>
+      <c r="V37">
+        <v>0.5</v>
+      </c>
+      <c r="W37">
+        <v>0.5</v>
+      </c>
+      <c r="X37">
+        <v>0.1</v>
+      </c>
+      <c r="Y37">
+        <v>0.5</v>
+      </c>
+      <c r="Z37">
+        <v>0.5</v>
+      </c>
+      <c r="AA37">
+        <v>0.3</v>
+      </c>
+      <c r="AB37">
+        <v>0.5</v>
+      </c>
+      <c r="AC37">
+        <v>0.5</v>
+      </c>
+      <c r="AD37">
+        <v>0.5</v>
+      </c>
+      <c r="AE37">
+        <v>0.5</v>
+      </c>
+      <c r="AF37">
+        <v>0.5</v>
+      </c>
+      <c r="AG37">
+        <v>0.5</v>
+      </c>
+      <c r="AH37">
+        <v>0.5</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2417,8 +4801,71 @@
       <c r="N38">
         <v>0</v>
       </c>
+      <c r="O38">
+        <v>0.5</v>
+      </c>
+      <c r="P38">
+        <v>0.5</v>
+      </c>
+      <c r="Q38">
+        <v>0.5</v>
+      </c>
+      <c r="R38">
+        <v>0.3</v>
+      </c>
+      <c r="S38">
+        <v>0.1</v>
+      </c>
+      <c r="T38">
+        <v>0.5</v>
+      </c>
+      <c r="U38">
+        <v>0.1</v>
+      </c>
+      <c r="V38">
+        <v>0.5</v>
+      </c>
+      <c r="W38">
+        <v>0.5</v>
+      </c>
+      <c r="X38">
+        <v>0.1</v>
+      </c>
+      <c r="Y38">
+        <v>0.5</v>
+      </c>
+      <c r="Z38">
+        <v>0.5</v>
+      </c>
+      <c r="AA38">
+        <v>0.3</v>
+      </c>
+      <c r="AB38">
+        <v>0.5</v>
+      </c>
+      <c r="AC38">
+        <v>0.5</v>
+      </c>
+      <c r="AD38">
+        <v>0.5</v>
+      </c>
+      <c r="AE38">
+        <v>0.5</v>
+      </c>
+      <c r="AF38">
+        <v>0.5</v>
+      </c>
+      <c r="AG38">
+        <v>0.5</v>
+      </c>
+      <c r="AH38">
+        <v>0.5</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2455,8 +4902,71 @@
       <c r="N39">
         <v>0</v>
       </c>
+      <c r="O39">
+        <v>0.5</v>
+      </c>
+      <c r="P39">
+        <v>0.5</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
+      </c>
+      <c r="R39">
+        <v>0.3</v>
+      </c>
+      <c r="S39">
+        <v>0.1</v>
+      </c>
+      <c r="T39">
+        <v>0.5</v>
+      </c>
+      <c r="U39">
+        <v>0.1</v>
+      </c>
+      <c r="V39">
+        <v>0.5</v>
+      </c>
+      <c r="W39">
+        <v>0.5</v>
+      </c>
+      <c r="X39">
+        <v>0.1</v>
+      </c>
+      <c r="Y39">
+        <v>0.5</v>
+      </c>
+      <c r="Z39">
+        <v>0.5</v>
+      </c>
+      <c r="AA39">
+        <v>0.3</v>
+      </c>
+      <c r="AB39">
+        <v>0.5</v>
+      </c>
+      <c r="AC39">
+        <v>0.5</v>
+      </c>
+      <c r="AD39">
+        <v>0.5</v>
+      </c>
+      <c r="AE39">
+        <v>0.5</v>
+      </c>
+      <c r="AF39">
+        <v>0.5</v>
+      </c>
+      <c r="AG39">
+        <v>0.5</v>
+      </c>
+      <c r="AH39">
+        <v>0.5</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2493,8 +5003,71 @@
       <c r="N40">
         <v>0</v>
       </c>
+      <c r="O40">
+        <v>0.5</v>
+      </c>
+      <c r="P40">
+        <v>0.5</v>
+      </c>
+      <c r="Q40">
+        <v>0.5</v>
+      </c>
+      <c r="R40">
+        <v>0.3</v>
+      </c>
+      <c r="S40">
+        <v>0.1</v>
+      </c>
+      <c r="T40">
+        <v>0.5</v>
+      </c>
+      <c r="U40">
+        <v>0.1</v>
+      </c>
+      <c r="V40">
+        <v>0.5</v>
+      </c>
+      <c r="W40">
+        <v>0.5</v>
+      </c>
+      <c r="X40">
+        <v>0.1</v>
+      </c>
+      <c r="Y40">
+        <v>0.5</v>
+      </c>
+      <c r="Z40">
+        <v>0.5</v>
+      </c>
+      <c r="AA40">
+        <v>0.3</v>
+      </c>
+      <c r="AB40">
+        <v>0.5</v>
+      </c>
+      <c r="AC40">
+        <v>0.5</v>
+      </c>
+      <c r="AD40">
+        <v>0.5</v>
+      </c>
+      <c r="AE40">
+        <v>0.5</v>
+      </c>
+      <c r="AF40">
+        <v>0.5</v>
+      </c>
+      <c r="AG40">
+        <v>0.5</v>
+      </c>
+      <c r="AH40">
+        <v>0.5</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2531,8 +5104,71 @@
       <c r="N41">
         <v>0</v>
       </c>
+      <c r="O41">
+        <v>0.5</v>
+      </c>
+      <c r="P41">
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0.5</v>
+      </c>
+      <c r="R41">
+        <v>0.3</v>
+      </c>
+      <c r="S41">
+        <v>0.1</v>
+      </c>
+      <c r="T41">
+        <v>0.5</v>
+      </c>
+      <c r="U41">
+        <v>0.1</v>
+      </c>
+      <c r="V41">
+        <v>0.5</v>
+      </c>
+      <c r="W41">
+        <v>0.5</v>
+      </c>
+      <c r="X41">
+        <v>0.1</v>
+      </c>
+      <c r="Y41">
+        <v>0.5</v>
+      </c>
+      <c r="Z41">
+        <v>0.5</v>
+      </c>
+      <c r="AA41">
+        <v>0.3</v>
+      </c>
+      <c r="AB41">
+        <v>0.5</v>
+      </c>
+      <c r="AC41">
+        <v>0.5</v>
+      </c>
+      <c r="AD41">
+        <v>0.5</v>
+      </c>
+      <c r="AE41">
+        <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>0.5</v>
+      </c>
+      <c r="AG41">
+        <v>0.5</v>
+      </c>
+      <c r="AH41">
+        <v>0.5</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2569,8 +5205,71 @@
       <c r="N42">
         <v>0</v>
       </c>
+      <c r="O42">
+        <v>0.5</v>
+      </c>
+      <c r="P42">
+        <v>0.5</v>
+      </c>
+      <c r="Q42">
+        <v>0.5</v>
+      </c>
+      <c r="R42">
+        <v>0.3</v>
+      </c>
+      <c r="S42">
+        <v>0.1</v>
+      </c>
+      <c r="T42">
+        <v>0.5</v>
+      </c>
+      <c r="U42">
+        <v>0.1</v>
+      </c>
+      <c r="V42">
+        <v>0.5</v>
+      </c>
+      <c r="W42">
+        <v>0.5</v>
+      </c>
+      <c r="X42">
+        <v>0.1</v>
+      </c>
+      <c r="Y42">
+        <v>0.5</v>
+      </c>
+      <c r="Z42">
+        <v>0.5</v>
+      </c>
+      <c r="AA42">
+        <v>0.3</v>
+      </c>
+      <c r="AB42">
+        <v>0.5</v>
+      </c>
+      <c r="AC42">
+        <v>0.5</v>
+      </c>
+      <c r="AD42">
+        <v>0.5</v>
+      </c>
+      <c r="AE42">
+        <v>0.5</v>
+      </c>
+      <c r="AF42">
+        <v>0.5</v>
+      </c>
+      <c r="AG42">
+        <v>0.5</v>
+      </c>
+      <c r="AH42">
+        <v>0.5</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2607,8 +5306,71 @@
       <c r="N43">
         <v>0</v>
       </c>
+      <c r="O43">
+        <v>0.5</v>
+      </c>
+      <c r="P43">
+        <v>0.5</v>
+      </c>
+      <c r="Q43">
+        <v>0.5</v>
+      </c>
+      <c r="R43">
+        <v>0.3</v>
+      </c>
+      <c r="S43">
+        <v>0.1</v>
+      </c>
+      <c r="T43">
+        <v>0.5</v>
+      </c>
+      <c r="U43">
+        <v>0.1</v>
+      </c>
+      <c r="V43">
+        <v>0.5</v>
+      </c>
+      <c r="W43">
+        <v>0.5</v>
+      </c>
+      <c r="X43">
+        <v>0.1</v>
+      </c>
+      <c r="Y43">
+        <v>0.5</v>
+      </c>
+      <c r="Z43">
+        <v>0.5</v>
+      </c>
+      <c r="AA43">
+        <v>0.3</v>
+      </c>
+      <c r="AB43">
+        <v>0.5</v>
+      </c>
+      <c r="AC43">
+        <v>0.5</v>
+      </c>
+      <c r="AD43">
+        <v>0.5</v>
+      </c>
+      <c r="AE43">
+        <v>0.5</v>
+      </c>
+      <c r="AF43">
+        <v>0.5</v>
+      </c>
+      <c r="AG43">
+        <v>0.5</v>
+      </c>
+      <c r="AH43">
+        <v>0.5</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2645,8 +5407,71 @@
       <c r="N44">
         <v>0</v>
       </c>
+      <c r="O44">
+        <v>0.5</v>
+      </c>
+      <c r="P44">
+        <v>0.5</v>
+      </c>
+      <c r="Q44">
+        <v>0.5</v>
+      </c>
+      <c r="R44">
+        <v>0.3</v>
+      </c>
+      <c r="S44">
+        <v>0.1</v>
+      </c>
+      <c r="T44">
+        <v>0.5</v>
+      </c>
+      <c r="U44">
+        <v>0.1</v>
+      </c>
+      <c r="V44">
+        <v>0.5</v>
+      </c>
+      <c r="W44">
+        <v>0.5</v>
+      </c>
+      <c r="X44">
+        <v>0.1</v>
+      </c>
+      <c r="Y44">
+        <v>0.5</v>
+      </c>
+      <c r="Z44">
+        <v>0.5</v>
+      </c>
+      <c r="AA44">
+        <v>0.3</v>
+      </c>
+      <c r="AB44">
+        <v>0.5</v>
+      </c>
+      <c r="AC44">
+        <v>0.5</v>
+      </c>
+      <c r="AD44">
+        <v>0.5</v>
+      </c>
+      <c r="AE44">
+        <v>0.5</v>
+      </c>
+      <c r="AF44">
+        <v>0.5</v>
+      </c>
+      <c r="AG44">
+        <v>0.5</v>
+      </c>
+      <c r="AH44">
+        <v>0.5</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2681,11 +5506,73 @@
         <v>4</v>
       </c>
       <c r="N45">
-        <f>N44</f>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0.5</v>
+      </c>
+      <c r="P45">
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0.5</v>
+      </c>
+      <c r="R45">
+        <v>0.3</v>
+      </c>
+      <c r="S45">
+        <v>0.1</v>
+      </c>
+      <c r="T45">
+        <v>0.5</v>
+      </c>
+      <c r="U45">
+        <v>0.1</v>
+      </c>
+      <c r="V45">
+        <v>0.5</v>
+      </c>
+      <c r="W45">
+        <v>0.5</v>
+      </c>
+      <c r="X45">
+        <v>0.1</v>
+      </c>
+      <c r="Y45">
+        <v>0.5</v>
+      </c>
+      <c r="Z45">
+        <v>0.5</v>
+      </c>
+      <c r="AA45">
+        <v>0.3</v>
+      </c>
+      <c r="AB45">
+        <v>0.5</v>
+      </c>
+      <c r="AC45">
+        <v>0.5</v>
+      </c>
+      <c r="AD45">
+        <v>0.5</v>
+      </c>
+      <c r="AE45">
+        <v>0.5</v>
+      </c>
+      <c r="AF45">
+        <v>0.5</v>
+      </c>
+      <c r="AG45">
+        <v>0.5</v>
+      </c>
+      <c r="AH45">
+        <v>0.5</v>
+      </c>
+      <c r="AI45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2722,8 +5609,71 @@
       <c r="N46">
         <v>0</v>
       </c>
+      <c r="O46">
+        <v>0.5</v>
+      </c>
+      <c r="P46">
+        <v>0.5</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <v>0.3</v>
+      </c>
+      <c r="S46">
+        <v>0.1</v>
+      </c>
+      <c r="T46">
+        <v>0.5</v>
+      </c>
+      <c r="U46">
+        <v>0.1</v>
+      </c>
+      <c r="V46">
+        <v>0.5</v>
+      </c>
+      <c r="W46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>0.1</v>
+      </c>
+      <c r="Y46">
+        <v>0.5</v>
+      </c>
+      <c r="Z46">
+        <v>0.5</v>
+      </c>
+      <c r="AA46">
+        <v>0.3</v>
+      </c>
+      <c r="AB46">
+        <v>0.5</v>
+      </c>
+      <c r="AC46">
+        <v>0.5</v>
+      </c>
+      <c r="AD46">
+        <v>0.5</v>
+      </c>
+      <c r="AE46">
+        <v>0.5</v>
+      </c>
+      <c r="AF46">
+        <v>0.5</v>
+      </c>
+      <c r="AG46">
+        <v>0.5</v>
+      </c>
+      <c r="AH46">
+        <v>0.5</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2758,11 +5708,73 @@
         <v>4</v>
       </c>
       <c r="N47">
-        <f>N46</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0.5</v>
+      </c>
+      <c r="P47">
+        <v>0.5</v>
+      </c>
+      <c r="Q47">
+        <v>0.5</v>
+      </c>
+      <c r="R47">
+        <v>0.3</v>
+      </c>
+      <c r="S47">
+        <v>0.1</v>
+      </c>
+      <c r="T47">
+        <v>0.5</v>
+      </c>
+      <c r="U47">
+        <v>0.1</v>
+      </c>
+      <c r="V47">
+        <v>0.5</v>
+      </c>
+      <c r="W47">
+        <v>0.5</v>
+      </c>
+      <c r="X47">
+        <v>0.1</v>
+      </c>
+      <c r="Y47">
+        <v>0.5</v>
+      </c>
+      <c r="Z47">
+        <v>0.5</v>
+      </c>
+      <c r="AA47">
+        <v>0.3</v>
+      </c>
+      <c r="AB47">
+        <v>0.5</v>
+      </c>
+      <c r="AC47">
+        <v>0.5</v>
+      </c>
+      <c r="AD47">
+        <v>0.5</v>
+      </c>
+      <c r="AE47">
+        <v>0.5</v>
+      </c>
+      <c r="AF47">
+        <v>0.5</v>
+      </c>
+      <c r="AG47">
+        <v>0.5</v>
+      </c>
+      <c r="AH47">
+        <v>0.5</v>
+      </c>
+      <c r="AI47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2797,11 +5809,73 @@
         <v>4</v>
       </c>
       <c r="N48">
-        <f>N47</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.5</v>
+      </c>
+      <c r="P48">
+        <v>0.5</v>
+      </c>
+      <c r="Q48">
+        <v>0.5</v>
+      </c>
+      <c r="R48">
+        <v>0.3</v>
+      </c>
+      <c r="S48">
+        <v>0.1</v>
+      </c>
+      <c r="T48">
+        <v>0.5</v>
+      </c>
+      <c r="U48">
+        <v>0.1</v>
+      </c>
+      <c r="V48">
+        <v>0.5</v>
+      </c>
+      <c r="W48">
+        <v>0.5</v>
+      </c>
+      <c r="X48">
+        <v>0.1</v>
+      </c>
+      <c r="Y48">
+        <v>0.5</v>
+      </c>
+      <c r="Z48">
+        <v>0.5</v>
+      </c>
+      <c r="AA48">
+        <v>0.3</v>
+      </c>
+      <c r="AB48">
+        <v>0.5</v>
+      </c>
+      <c r="AC48">
+        <v>0.5</v>
+      </c>
+      <c r="AD48">
+        <v>0.5</v>
+      </c>
+      <c r="AE48">
+        <v>0.5</v>
+      </c>
+      <c r="AF48">
+        <v>0.5</v>
+      </c>
+      <c r="AG48">
+        <v>0.5</v>
+      </c>
+      <c r="AH48">
+        <v>0.5</v>
+      </c>
+      <c r="AI48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2836,11 +5910,73 @@
         <v>4</v>
       </c>
       <c r="N49">
-        <f>N46</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0.5</v>
+      </c>
+      <c r="P49">
+        <v>0.5</v>
+      </c>
+      <c r="Q49">
+        <v>0.5</v>
+      </c>
+      <c r="R49">
+        <v>0.3</v>
+      </c>
+      <c r="S49">
+        <v>0.1</v>
+      </c>
+      <c r="T49">
+        <v>0.5</v>
+      </c>
+      <c r="U49">
+        <v>0.1</v>
+      </c>
+      <c r="V49">
+        <v>0.5</v>
+      </c>
+      <c r="W49">
+        <v>0.5</v>
+      </c>
+      <c r="X49">
+        <v>0.1</v>
+      </c>
+      <c r="Y49">
+        <v>0.5</v>
+      </c>
+      <c r="Z49">
+        <v>0.5</v>
+      </c>
+      <c r="AA49">
+        <v>0.3</v>
+      </c>
+      <c r="AB49">
+        <v>0.5</v>
+      </c>
+      <c r="AC49">
+        <v>0.5</v>
+      </c>
+      <c r="AD49">
+        <v>0.5</v>
+      </c>
+      <c r="AE49">
+        <v>0.5</v>
+      </c>
+      <c r="AF49">
+        <v>0.5</v>
+      </c>
+      <c r="AG49">
+        <v>0.5</v>
+      </c>
+      <c r="AH49">
+        <v>0.5</v>
+      </c>
+      <c r="AI49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2875,11 +6011,73 @@
         <v>4</v>
       </c>
       <c r="N50">
-        <f>N45</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0.5</v>
+      </c>
+      <c r="Q50">
+        <v>0.5</v>
+      </c>
+      <c r="R50">
+        <v>0.3</v>
+      </c>
+      <c r="S50">
+        <v>0.1</v>
+      </c>
+      <c r="T50">
+        <v>0.5</v>
+      </c>
+      <c r="U50">
+        <v>0.1</v>
+      </c>
+      <c r="V50">
+        <v>0.5</v>
+      </c>
+      <c r="W50">
+        <v>0.5</v>
+      </c>
+      <c r="X50">
+        <v>0.1</v>
+      </c>
+      <c r="Y50">
+        <v>0.5</v>
+      </c>
+      <c r="Z50">
+        <v>0.5</v>
+      </c>
+      <c r="AA50">
+        <v>0.3</v>
+      </c>
+      <c r="AB50">
+        <v>0.5</v>
+      </c>
+      <c r="AC50">
+        <v>0.5</v>
+      </c>
+      <c r="AD50">
+        <v>0.5</v>
+      </c>
+      <c r="AE50">
+        <v>0.5</v>
+      </c>
+      <c r="AF50">
+        <v>0.5</v>
+      </c>
+      <c r="AG50">
+        <v>0.5</v>
+      </c>
+      <c r="AH50">
+        <v>0.5</v>
+      </c>
+      <c r="AI50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2914,11 +6112,73 @@
         <v>4</v>
       </c>
       <c r="N51">
-        <f>N44</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.5</v>
+      </c>
+      <c r="P51">
+        <v>0.5</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51">
+        <v>0.3</v>
+      </c>
+      <c r="S51">
+        <v>0.1</v>
+      </c>
+      <c r="T51">
+        <v>0.5</v>
+      </c>
+      <c r="U51">
+        <v>0.1</v>
+      </c>
+      <c r="V51">
+        <v>0.5</v>
+      </c>
+      <c r="W51">
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>0.1</v>
+      </c>
+      <c r="Y51">
+        <v>0.5</v>
+      </c>
+      <c r="Z51">
+        <v>0.5</v>
+      </c>
+      <c r="AA51">
+        <v>0.3</v>
+      </c>
+      <c r="AB51">
+        <v>0.5</v>
+      </c>
+      <c r="AC51">
+        <v>0.5</v>
+      </c>
+      <c r="AD51">
+        <v>0.5</v>
+      </c>
+      <c r="AE51">
+        <v>0.5</v>
+      </c>
+      <c r="AF51">
+        <v>0.5</v>
+      </c>
+      <c r="AG51">
+        <v>0.5</v>
+      </c>
+      <c r="AH51">
+        <v>0.5</v>
+      </c>
+      <c r="AI51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2955,8 +6215,71 @@
       <c r="N52">
         <v>0</v>
       </c>
+      <c r="O52">
+        <v>0.5</v>
+      </c>
+      <c r="P52">
+        <v>0.5</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52">
+        <v>0.3</v>
+      </c>
+      <c r="S52">
+        <v>0.5</v>
+      </c>
+      <c r="T52">
+        <v>0.5</v>
+      </c>
+      <c r="U52">
+        <v>0.1</v>
+      </c>
+      <c r="V52">
+        <v>0.5</v>
+      </c>
+      <c r="W52">
+        <v>0.5</v>
+      </c>
+      <c r="X52">
+        <v>0.1</v>
+      </c>
+      <c r="Y52">
+        <v>0.5</v>
+      </c>
+      <c r="Z52">
+        <v>0.5</v>
+      </c>
+      <c r="AA52">
+        <v>0.3</v>
+      </c>
+      <c r="AB52">
+        <v>0.5</v>
+      </c>
+      <c r="AC52">
+        <v>0.5</v>
+      </c>
+      <c r="AD52">
+        <v>0.5</v>
+      </c>
+      <c r="AE52">
+        <v>0.5</v>
+      </c>
+      <c r="AF52">
+        <v>0.5</v>
+      </c>
+      <c r="AG52">
+        <v>0.5</v>
+      </c>
+      <c r="AH52">
+        <v>0.5</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2991,11 +6314,73 @@
         <v>4</v>
       </c>
       <c r="N53">
-        <f>N51</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0.5</v>
+      </c>
+      <c r="P53">
+        <v>0.5</v>
+      </c>
+      <c r="Q53">
+        <v>0.5</v>
+      </c>
+      <c r="R53">
+        <v>0.3</v>
+      </c>
+      <c r="S53">
+        <v>0.5</v>
+      </c>
+      <c r="T53">
+        <v>0.5</v>
+      </c>
+      <c r="U53">
+        <v>0.1</v>
+      </c>
+      <c r="V53">
+        <v>0.5</v>
+      </c>
+      <c r="W53">
+        <v>0.5</v>
+      </c>
+      <c r="X53">
+        <v>0.1</v>
+      </c>
+      <c r="Y53">
+        <v>0.5</v>
+      </c>
+      <c r="Z53">
+        <v>0.5</v>
+      </c>
+      <c r="AA53">
+        <v>0.3</v>
+      </c>
+      <c r="AB53">
+        <v>0.5</v>
+      </c>
+      <c r="AC53">
+        <v>0.5</v>
+      </c>
+      <c r="AD53">
+        <v>0.5</v>
+      </c>
+      <c r="AE53">
+        <v>0.5</v>
+      </c>
+      <c r="AF53">
+        <v>0.5</v>
+      </c>
+      <c r="AG53">
+        <v>0.5</v>
+      </c>
+      <c r="AH53">
+        <v>0.5</v>
+      </c>
+      <c r="AI53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -3030,11 +6415,73 @@
         <v>4</v>
       </c>
       <c r="N54">
-        <f>N52</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0.5</v>
+      </c>
+      <c r="P54">
+        <v>0.5</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>0.3</v>
+      </c>
+      <c r="S54">
+        <v>0.5</v>
+      </c>
+      <c r="T54">
+        <v>0.5</v>
+      </c>
+      <c r="U54">
+        <v>0.1</v>
+      </c>
+      <c r="V54">
+        <v>0.5</v>
+      </c>
+      <c r="W54">
+        <v>0.5</v>
+      </c>
+      <c r="X54">
+        <v>0.1</v>
+      </c>
+      <c r="Y54">
+        <v>0.5</v>
+      </c>
+      <c r="Z54">
+        <v>0.5</v>
+      </c>
+      <c r="AA54">
+        <v>0.3</v>
+      </c>
+      <c r="AB54">
+        <v>0.5</v>
+      </c>
+      <c r="AC54">
+        <v>0.5</v>
+      </c>
+      <c r="AD54">
+        <v>0.5</v>
+      </c>
+      <c r="AE54">
+        <v>0.5</v>
+      </c>
+      <c r="AF54">
+        <v>0.5</v>
+      </c>
+      <c r="AG54">
+        <v>0.5</v>
+      </c>
+      <c r="AH54">
+        <v>0.5</v>
+      </c>
+      <c r="AI54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3069,11 +6516,73 @@
         <v>4</v>
       </c>
       <c r="N55">
-        <f>N52</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0.5</v>
+      </c>
+      <c r="P55">
+        <v>0.5</v>
+      </c>
+      <c r="Q55">
+        <v>0.5</v>
+      </c>
+      <c r="R55">
+        <v>0.3</v>
+      </c>
+      <c r="S55">
+        <v>0.5</v>
+      </c>
+      <c r="T55">
+        <v>0.5</v>
+      </c>
+      <c r="U55">
+        <v>0.1</v>
+      </c>
+      <c r="V55">
+        <v>0.5</v>
+      </c>
+      <c r="W55">
+        <v>0.5</v>
+      </c>
+      <c r="X55">
+        <v>0.1</v>
+      </c>
+      <c r="Y55">
+        <v>0.5</v>
+      </c>
+      <c r="Z55">
+        <v>0.5</v>
+      </c>
+      <c r="AA55">
+        <v>0.3</v>
+      </c>
+      <c r="AB55">
+        <v>0.5</v>
+      </c>
+      <c r="AC55">
+        <v>0.5</v>
+      </c>
+      <c r="AD55">
+        <v>0.5</v>
+      </c>
+      <c r="AE55">
+        <v>0.5</v>
+      </c>
+      <c r="AF55">
+        <v>0.5</v>
+      </c>
+      <c r="AG55">
+        <v>0.5</v>
+      </c>
+      <c r="AH55">
+        <v>0.5</v>
+      </c>
+      <c r="AI55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3110,8 +6619,71 @@
       <c r="N56">
         <v>0</v>
       </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3147,6 +6719,541 @@
       </c>
       <c r="N57">
         <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C58">
+        <v>0.85</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>1</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C59">
+        <v>0.85</v>
+      </c>
+      <c r="D59">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C60">
+        <v>0.85</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>0.5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>3</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C61">
+        <v>0.85</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="E61">
+        <v>0.5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>3</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>0.6</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>0.88</v>
+      </c>
+      <c r="V63">
+        <v>0.88</v>
+      </c>
+      <c r="W63">
+        <v>0.88</v>
+      </c>
+      <c r="X63">
+        <v>0.73</v>
+      </c>
+      <c r="Y63">
+        <v>0.73</v>
+      </c>
+      <c r="Z63">
+        <v>0.63</v>
+      </c>
+      <c r="AA63">
+        <v>0.6</v>
+      </c>
+      <c r="AB63">
+        <v>0.6</v>
+      </c>
+      <c r="AC63">
+        <v>0.6</v>
+      </c>
+      <c r="AD63">
+        <v>0.6</v>
+      </c>
+      <c r="AE63">
+        <v>0.6</v>
+      </c>
+      <c r="AF63">
+        <v>0.6</v>
+      </c>
+      <c r="AG63">
+        <v>0.6</v>
+      </c>
+      <c r="AH63">
+        <v>0.6</v>
+      </c>
+      <c r="AI63">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/import/import.xlsx
+++ b/import/import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="101">
   <si>
     <t>ПОШ (уборка/выпуск)</t>
   </si>
@@ -996,9 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI63"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1030,7 +1032,7 @@
     <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1121,14 +1123,8 @@
       <c r="AG1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1222,14 +1218,8 @@
       <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1323,14 +1313,8 @@
       <c r="AG3">
         <v>0.5</v>
       </c>
-      <c r="AH3">
-        <v>0.5</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1424,14 +1408,8 @@
       <c r="AG4">
         <v>0.5</v>
       </c>
-      <c r="AH4">
-        <v>0.5</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1525,14 +1503,8 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1626,14 +1598,8 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1727,14 +1693,8 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1828,14 +1788,8 @@
       <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1929,14 +1883,8 @@
       <c r="AG9">
         <v>0</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2030,14 +1978,8 @@
       <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2131,14 +2073,8 @@
       <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2232,14 +2168,8 @@
       <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2333,14 +2263,8 @@
       <c r="AG13">
         <v>1</v>
       </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2434,14 +2358,8 @@
       <c r="AG14">
         <v>1</v>
       </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2535,14 +2453,8 @@
       <c r="AG15">
         <v>1</v>
       </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2636,14 +2548,8 @@
       <c r="AG16">
         <v>1</v>
       </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2737,14 +2643,8 @@
       <c r="AG17">
         <v>1</v>
       </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2838,14 +2738,8 @@
       <c r="AG18">
         <v>0.5</v>
       </c>
-      <c r="AH18">
-        <v>0.5</v>
-      </c>
-      <c r="AI18">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2939,14 +2833,8 @@
       <c r="AG19">
         <v>0.5</v>
       </c>
-      <c r="AH19">
-        <v>0.5</v>
-      </c>
-      <c r="AI19">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3040,14 +2928,8 @@
       <c r="AG20">
         <v>0.5</v>
       </c>
-      <c r="AH20">
-        <v>0.5</v>
-      </c>
-      <c r="AI20">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3141,14 +3023,8 @@
       <c r="AG21">
         <v>0.5</v>
       </c>
-      <c r="AH21">
-        <v>0.5</v>
-      </c>
-      <c r="AI21">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3242,14 +3118,8 @@
       <c r="AG22">
         <v>0.5</v>
       </c>
-      <c r="AH22">
-        <v>0.5</v>
-      </c>
-      <c r="AI22">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3343,14 +3213,8 @@
       <c r="AG23">
         <v>0.5</v>
       </c>
-      <c r="AH23">
-        <v>0.5</v>
-      </c>
-      <c r="AI23">
-        <v>0.1</v>
-      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3444,14 +3308,8 @@
       <c r="AG24">
         <v>0.5</v>
       </c>
-      <c r="AH24">
-        <v>0.5</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3545,14 +3403,8 @@
       <c r="AG25">
         <v>0.5</v>
       </c>
-      <c r="AH25">
-        <v>0.5</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3646,14 +3498,8 @@
       <c r="AG26">
         <v>0.5</v>
       </c>
-      <c r="AH26">
-        <v>0.5</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3747,14 +3593,8 @@
       <c r="AG27">
         <v>0.5</v>
       </c>
-      <c r="AH27">
-        <v>0.5</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3848,14 +3688,8 @@
       <c r="AG28">
         <v>0.5</v>
       </c>
-      <c r="AH28">
-        <v>0.5</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3949,14 +3783,8 @@
       <c r="AG29">
         <v>0.5</v>
       </c>
-      <c r="AH29">
-        <v>0.5</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -4050,14 +3878,8 @@
       <c r="AG30">
         <v>0.5</v>
       </c>
-      <c r="AH30">
-        <v>0.5</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -4151,14 +3973,8 @@
       <c r="AG31">
         <v>0.5</v>
       </c>
-      <c r="AH31">
-        <v>0.5</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4252,14 +4068,8 @@
       <c r="AG32">
         <v>0.5</v>
       </c>
-      <c r="AH32">
-        <v>0.5</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4353,14 +4163,8 @@
       <c r="AG33">
         <v>0.5</v>
       </c>
-      <c r="AH33">
-        <v>0.5</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4454,14 +4258,8 @@
       <c r="AG34">
         <v>0.5</v>
       </c>
-      <c r="AH34">
-        <v>0.5</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4555,14 +4353,8 @@
       <c r="AG35">
         <v>0.5</v>
       </c>
-      <c r="AH35">
-        <v>0.5</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4656,14 +4448,8 @@
       <c r="AG36">
         <v>0.5</v>
       </c>
-      <c r="AH36">
-        <v>0.5</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4757,14 +4543,8 @@
       <c r="AG37">
         <v>0.5</v>
       </c>
-      <c r="AH37">
-        <v>0.5</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4858,14 +4638,8 @@
       <c r="AG38">
         <v>0.5</v>
       </c>
-      <c r="AH38">
-        <v>0.5</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4959,14 +4733,8 @@
       <c r="AG39">
         <v>0.5</v>
       </c>
-      <c r="AH39">
-        <v>0.5</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -5060,14 +4828,8 @@
       <c r="AG40">
         <v>0.5</v>
       </c>
-      <c r="AH40">
-        <v>0.5</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -5161,14 +4923,8 @@
       <c r="AG41">
         <v>0.5</v>
       </c>
-      <c r="AH41">
-        <v>0.5</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -5262,14 +5018,8 @@
       <c r="AG42">
         <v>0.5</v>
       </c>
-      <c r="AH42">
-        <v>0.5</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5363,14 +5113,8 @@
       <c r="AG43">
         <v>0.5</v>
       </c>
-      <c r="AH43">
-        <v>0.5</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5464,14 +5208,8 @@
       <c r="AG44">
         <v>0.5</v>
       </c>
-      <c r="AH44">
-        <v>0.5</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5565,14 +5303,8 @@
       <c r="AG45">
         <v>0.5</v>
       </c>
-      <c r="AH45">
-        <v>0.5</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5666,14 +5398,8 @@
       <c r="AG46">
         <v>0.5</v>
       </c>
-      <c r="AH46">
-        <v>0.5</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5767,14 +5493,8 @@
       <c r="AG47">
         <v>0.5</v>
       </c>
-      <c r="AH47">
-        <v>0.5</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5868,14 +5588,8 @@
       <c r="AG48">
         <v>0.5</v>
       </c>
-      <c r="AH48">
-        <v>0.5</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5969,14 +5683,8 @@
       <c r="AG49">
         <v>0.5</v>
       </c>
-      <c r="AH49">
-        <v>0.5</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -6070,14 +5778,8 @@
       <c r="AG50">
         <v>0.5</v>
       </c>
-      <c r="AH50">
-        <v>0.5</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -6171,14 +5873,8 @@
       <c r="AG51">
         <v>0.5</v>
       </c>
-      <c r="AH51">
-        <v>0.5</v>
-      </c>
-      <c r="AI51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -6272,14 +5968,8 @@
       <c r="AG52">
         <v>0.5</v>
       </c>
-      <c r="AH52">
-        <v>0.5</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -6373,14 +6063,8 @@
       <c r="AG53">
         <v>0.5</v>
       </c>
-      <c r="AH53">
-        <v>0.5</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -6474,14 +6158,8 @@
       <c r="AG54">
         <v>0.5</v>
       </c>
-      <c r="AH54">
-        <v>0.5</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -6575,14 +6253,8 @@
       <c r="AG55">
         <v>0.5</v>
       </c>
-      <c r="AH55">
-        <v>0.5</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -6676,14 +6348,8 @@
       <c r="AG56">
         <v>1</v>
       </c>
-      <c r="AH56">
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -6777,14 +6443,8 @@
       <c r="AG57">
         <v>1</v>
       </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6878,14 +6538,8 @@
       <c r="AG58">
         <v>1</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -6979,14 +6633,8 @@
       <c r="AG59">
         <v>1</v>
       </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -7080,14 +6728,8 @@
       <c r="AG60">
         <v>0</v>
       </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -7181,14 +6823,23 @@
       <c r="AG61">
         <v>0</v>
       </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>180</v>
+      </c>
+      <c r="D63">
+        <v>211</v>
+      </c>
+      <c r="E63">
+        <v>195</v>
+      </c>
       <c r="N63">
         <v>0.6</v>
       </c>
@@ -7249,11 +6900,98 @@
       <c r="AG63">
         <v>0.6</v>
       </c>
-      <c r="AH63">
-        <v>0.6</v>
-      </c>
-      <c r="AI63">
-        <v>0.6</v>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>180</v>
+      </c>
+      <c r="D64">
+        <v>211</v>
+      </c>
+      <c r="E64">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>180</v>
+      </c>
+      <c r="D65">
+        <v>211</v>
+      </c>
+      <c r="E65">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>180</v>
+      </c>
+      <c r="D66">
+        <v>211</v>
+      </c>
+      <c r="E66">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>50</v>
+      </c>
+      <c r="D67">
+        <v>211</v>
+      </c>
+      <c r="E67">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>211</v>
+      </c>
+      <c r="E68">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/import/import.xlsx
+++ b/import/import.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="102">
   <si>
     <t>ПОШ (уборка/выпуск)</t>
   </si>
@@ -364,16 +364,19 @@
     <t>База</t>
   </si>
   <si>
-    <t>5. ЭДСУ</t>
-  </si>
-  <si>
-    <t>6. 2H2E</t>
-  </si>
-  <si>
-    <t>7. ЭлКрЛГС</t>
-  </si>
-  <si>
-    <t>8. ПЭС</t>
+    <t>ЭДСУ</t>
+  </si>
+  <si>
+    <t>2H2E</t>
+  </si>
+  <si>
+    <t>ЭлКрЛГС</t>
+  </si>
+  <si>
+    <t>ПЭС</t>
+  </si>
+  <si>
+    <t>Руление 2</t>
   </si>
 </sst>
 </file>
@@ -996,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,11 +1031,12 @@
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1123,8 +1127,11 @@
       <c r="AG1" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1218,8 +1225,11 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1313,8 +1323,11 @@
       <c r="AG3">
         <v>0.5</v>
       </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1408,8 +1421,11 @@
       <c r="AG4">
         <v>0.5</v>
       </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1503,8 +1519,11 @@
       <c r="AG5">
         <v>0</v>
       </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1598,8 +1617,11 @@
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1693,8 +1715,11 @@
       <c r="AG7">
         <v>0</v>
       </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1788,8 +1813,11 @@
       <c r="AG8">
         <v>0</v>
       </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1883,8 +1911,11 @@
       <c r="AG9">
         <v>0</v>
       </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1978,8 +2009,11 @@
       <c r="AG10">
         <v>0</v>
       </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2073,8 +2107,11 @@
       <c r="AG11">
         <v>0</v>
       </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2168,8 +2205,11 @@
       <c r="AG12">
         <v>1</v>
       </c>
+      <c r="AH12">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2263,8 +2303,11 @@
       <c r="AG13">
         <v>1</v>
       </c>
+      <c r="AH13">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2358,8 +2401,11 @@
       <c r="AG14">
         <v>1</v>
       </c>
+      <c r="AH14">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2453,8 +2499,11 @@
       <c r="AG15">
         <v>1</v>
       </c>
+      <c r="AH15">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2548,8 +2597,11 @@
       <c r="AG16">
         <v>1</v>
       </c>
+      <c r="AH16">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2643,8 +2695,11 @@
       <c r="AG17">
         <v>1</v>
       </c>
+      <c r="AH17">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2738,8 +2793,11 @@
       <c r="AG18">
         <v>0.5</v>
       </c>
+      <c r="AH18">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2833,8 +2891,11 @@
       <c r="AG19">
         <v>0.5</v>
       </c>
+      <c r="AH19">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2928,8 +2989,11 @@
       <c r="AG20">
         <v>0.5</v>
       </c>
+      <c r="AH20">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3023,8 +3087,11 @@
       <c r="AG21">
         <v>0.5</v>
       </c>
+      <c r="AH21">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3118,8 +3185,11 @@
       <c r="AG22">
         <v>0.5</v>
       </c>
+      <c r="AH22">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3213,8 +3283,11 @@
       <c r="AG23">
         <v>0.5</v>
       </c>
+      <c r="AH23">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3308,8 +3381,11 @@
       <c r="AG24">
         <v>0.5</v>
       </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3403,8 +3479,11 @@
       <c r="AG25">
         <v>0.5</v>
       </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -3498,8 +3577,11 @@
       <c r="AG26">
         <v>0.5</v>
       </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -3593,8 +3675,11 @@
       <c r="AG27">
         <v>0.5</v>
       </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3688,8 +3773,11 @@
       <c r="AG28">
         <v>0.5</v>
       </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3783,8 +3871,11 @@
       <c r="AG29">
         <v>0.5</v>
       </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3878,8 +3969,11 @@
       <c r="AG30">
         <v>0.5</v>
       </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3973,8 +4067,11 @@
       <c r="AG31">
         <v>0.5</v>
       </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4068,8 +4165,11 @@
       <c r="AG32">
         <v>0.5</v>
       </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4163,8 +4263,11 @@
       <c r="AG33">
         <v>0.5</v>
       </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4258,8 +4361,11 @@
       <c r="AG34">
         <v>0.5</v>
       </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4353,8 +4459,11 @@
       <c r="AG35">
         <v>0.5</v>
       </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4448,8 +4557,11 @@
       <c r="AG36">
         <v>0.5</v>
       </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4543,8 +4655,11 @@
       <c r="AG37">
         <v>0.5</v>
       </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4638,8 +4753,11 @@
       <c r="AG38">
         <v>0.5</v>
       </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4733,8 +4851,11 @@
       <c r="AG39">
         <v>0.5</v>
       </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4828,8 +4949,11 @@
       <c r="AG40">
         <v>0.5</v>
       </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4923,8 +5047,11 @@
       <c r="AG41">
         <v>0.5</v>
       </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -5018,8 +5145,11 @@
       <c r="AG42">
         <v>0.5</v>
       </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5113,8 +5243,11 @@
       <c r="AG43">
         <v>0.5</v>
       </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5208,8 +5341,11 @@
       <c r="AG44">
         <v>0.5</v>
       </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5303,8 +5439,11 @@
       <c r="AG45">
         <v>0.5</v>
       </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5398,8 +5537,11 @@
       <c r="AG46">
         <v>0.5</v>
       </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5493,8 +5635,11 @@
       <c r="AG47">
         <v>0.5</v>
       </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -5588,8 +5733,11 @@
       <c r="AG48">
         <v>0.5</v>
       </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5683,8 +5831,11 @@
       <c r="AG49">
         <v>0.5</v>
       </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -5778,8 +5929,11 @@
       <c r="AG50">
         <v>0.5</v>
       </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -5873,8 +6027,11 @@
       <c r="AG51">
         <v>0.5</v>
       </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -5968,8 +6125,11 @@
       <c r="AG52">
         <v>0.5</v>
       </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -6063,8 +6223,11 @@
       <c r="AG53">
         <v>0.5</v>
       </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -6158,8 +6321,11 @@
       <c r="AG54">
         <v>0.5</v>
       </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -6253,8 +6419,11 @@
       <c r="AG55">
         <v>0.5</v>
       </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -6348,8 +6517,11 @@
       <c r="AG56">
         <v>1</v>
       </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -6443,8 +6615,11 @@
       <c r="AG57">
         <v>1</v>
       </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6538,8 +6713,11 @@
       <c r="AG58">
         <v>1</v>
       </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -6633,8 +6811,11 @@
       <c r="AG59">
         <v>1</v>
       </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -6728,8 +6909,11 @@
       <c r="AG60">
         <v>0</v>
       </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -6823,8 +7007,11 @@
       <c r="AG61">
         <v>0</v>
       </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -6900,8 +7087,11 @@
       <c r="AG63">
         <v>0.6</v>
       </c>
+      <c r="AH63">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -6923,7 +7113,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>180</v>
